--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,90 +43,111 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>died</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -145,112 +166,124 @@
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -608,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -727,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9130434782608695</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -777,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,16 +831,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.88</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -877,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8823529411764706</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>0.9230769230769231</v>
@@ -927,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8698630136986302</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C8">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8620689655172413</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,16 +1031,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.9112271540469974</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.775</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.9084507042253521</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,16 +1181,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.9069767441860465</v>
+        <v>0.890625</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7666666666666667</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8984375</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7450980392156863</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.8962264150943396</v>
+        <v>0.88125</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7142857142857143</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C15">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8936170212765957</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7073643410852714</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C16">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6949152542372882</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.8875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L17">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6923076923076923</v>
+        <v>0.7151162790697675</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>369</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>369</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K18">
         <v>0.8611111111111112</v>
@@ -1477,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.8448275862068966</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6410256410256411</v>
+        <v>0.7</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.8414634146341463</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L20">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6241610738255033</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C21">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K21">
         <v>0.8253968253968254</v>
@@ -1627,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6129032258064516</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0.8214285714285714</v>
@@ -1677,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5694444444444444</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C23">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="D23">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L23">
         <v>32</v>
@@ -1719,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5272727272727272</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1745,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.7948717948717948</v>
+        <v>0.8125</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1777,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5066666666666667</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1795,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K25">
         <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1819,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1827,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4642857142857143</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1845,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K26">
         <v>0.7777777777777778</v>
@@ -1877,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1895,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.7714285714285715</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1927,13 +1960,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3766233766233766</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1945,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.7558823529411764</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1969,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1977,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1995,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2019,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3055555555555556</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C30">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2045,19 +2078,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.7457627118644068</v>
+        <v>0.74</v>
       </c>
       <c r="L30">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2069,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2077,361 +2110,633 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1313672922252011</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="C31">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>53</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="L31">
+        <v>214</v>
+      </c>
+      <c r="M31">
+        <v>215</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.3875</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>49</v>
       </c>
-      <c r="D31">
-        <v>49</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>324</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.74</v>
-      </c>
-      <c r="L31">
-        <v>37</v>
-      </c>
-      <c r="M31">
-        <v>37</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="J32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.3506493506493507</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33">
+        <v>0.7112970711297071</v>
+      </c>
+      <c r="L33">
+        <v>170</v>
+      </c>
+      <c r="M33">
+        <v>170</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.3492063492063492</v>
+      </c>
+      <c r="C34">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>88</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>164</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34">
+        <v>0.6914893617021277</v>
+      </c>
+      <c r="L34">
+        <v>65</v>
+      </c>
+      <c r="M34">
+        <v>65</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.1715817694369973</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>309</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L35">
+        <v>60</v>
+      </c>
+      <c r="M35">
+        <v>60</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>279</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L36">
+        <v>33</v>
+      </c>
+      <c r="M36">
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01346801346801347</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>0.09</v>
+      </c>
+      <c r="F37">
+        <v>0.91</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2344</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>42</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.006445375443119562</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>0.17</v>
+      </c>
+      <c r="F38">
+        <v>0.83</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>3083</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L38">
+        <v>45</v>
+      </c>
+      <c r="M38">
+        <v>45</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L39">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.7112970711297071</v>
-      </c>
-      <c r="L32">
-        <v>170</v>
-      </c>
-      <c r="M32">
-        <v>170</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="L33">
-        <v>63</v>
-      </c>
-      <c r="M33">
-        <v>63</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L34">
-        <v>36</v>
-      </c>
-      <c r="M34">
-        <v>36</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>0.696969696969697</v>
-      </c>
-      <c r="L35">
-        <v>23</v>
-      </c>
-      <c r="M35">
-        <v>23</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="L36">
-        <v>48</v>
-      </c>
-      <c r="M36">
-        <v>48</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L37">
-        <v>64</v>
-      </c>
-      <c r="M37">
-        <v>64</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="L38">
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>0.484375</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>35</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>43</v>
       </c>
-      <c r="M38">
-        <v>43</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="L39">
-        <v>26</v>
-      </c>
-      <c r="M39">
-        <v>26</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46">
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="L46">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L40">
-        <v>24</v>
-      </c>
-      <c r="M40">
-        <v>24</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41">
-        <v>0.46875</v>
-      </c>
-      <c r="L41">
-        <v>30</v>
-      </c>
-      <c r="M41">
-        <v>30</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
-      <c r="M42">
-        <v>31</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43">
-        <v>0.4102564102564102</v>
-      </c>
-      <c r="L43">
-        <v>32</v>
-      </c>
-      <c r="M43">
-        <v>32</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>46</v>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K47">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L47">
+        <v>28</v>
+      </c>
+      <c r="M47">
+        <v>28</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
